--- a/qianchendai/data/cases.xlsx
+++ b/qianchendai/data/cases.xlsx
@@ -818,12 +818,12 @@
       </c>
       <c r="H5" s="7" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="J5" s="18" t="n"/>
